--- a/Data/Results/Affinity_Summary_2018.xlsx
+++ b/Data/Results/Affinity_Summary_2018.xlsx
@@ -14,72 +14,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
-  <si>
-    <t>Ticker</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>Center</t>
   </si>
   <si>
     <t>Count</t>
   </si>
   <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>ADBE</t>
-  </si>
-  <si>
-    <t>AMAT</t>
-  </si>
-  <si>
-    <t>DLR</t>
-  </si>
-  <si>
-    <t>EQIX</t>
-  </si>
-  <si>
-    <t>EXPE</t>
-  </si>
-  <si>
-    <t>NVDA</t>
-  </si>
-  <si>
-    <t>TTWO</t>
-  </si>
-  <si>
-    <t>TWTR</t>
-  </si>
-  <si>
-    <t>VIAC</t>
-  </si>
-  <si>
-    <t>ZUO</t>
-  </si>
-  <si>
-    <t>IAC</t>
-  </si>
-  <si>
-    <t>LUMN</t>
-  </si>
-  <si>
-    <t>TSQ</t>
-  </si>
-  <si>
-    <t>PCTY</t>
-  </si>
-  <si>
-    <t>TDS</t>
-  </si>
-  <si>
-    <t>USM</t>
-  </si>
-  <si>
-    <t>SHEN</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>OSTK</t>
+    <t>ATEN_2016</t>
+  </si>
+  <si>
+    <t>ATVI_2016</t>
+  </si>
+  <si>
+    <t>ATVI_2019</t>
+  </si>
+  <si>
+    <t>ADBE_2013</t>
+  </si>
+  <si>
+    <t>ADBE_2017</t>
+  </si>
+  <si>
+    <t>ADBE_2018</t>
+  </si>
+  <si>
+    <t>AKAM_2015</t>
+  </si>
+  <si>
+    <t>AMZN_2017</t>
+  </si>
+  <si>
+    <t>AMC_2013</t>
+  </si>
+  <si>
+    <t>AMC_2017</t>
+  </si>
+  <si>
+    <t>AMC_2020</t>
+  </si>
+  <si>
+    <t>AMCX_2017</t>
+  </si>
+  <si>
+    <t>AMAT_2013</t>
+  </si>
+  <si>
+    <t>ADSK_2013</t>
+  </si>
+  <si>
+    <t>BBY_2018</t>
+  </si>
+  <si>
+    <t>BBY_2019</t>
+  </si>
+  <si>
+    <t>BBY_2020</t>
+  </si>
+  <si>
+    <t>BKI_2016</t>
   </si>
 </sst>
 </file>
@@ -437,16 +431,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,10 +450,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -470,7 +461,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -481,10 +472,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -492,10 +483,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -503,10 +494,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -514,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>21</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -525,10 +516,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -536,10 +527,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -547,10 +538,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -558,10 +549,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -569,7 +560,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -580,10 +571,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -591,10 +582,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -602,10 +593,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -613,7 +604,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -624,7 +615,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -635,7 +626,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18">
         <v>2</v>
@@ -646,21 +637,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19">
         <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
